--- a/biology/Botanique/Annevoie-Rouillon/Annevoie-Rouillon.xlsx
+++ b/biology/Botanique/Annevoie-Rouillon/Annevoie-Rouillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Annevoie-Rouillon (en wallon Annvoye) est une section de la commune belge d'Anhée située en Région wallonne dans la province de Namur.
@@ -512,7 +524,9 @@
           <t>Évolution démographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Source: DGS, 1831 à 1970=recensements population, 1976= habitants au 31 décembre</t>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1784, la commune d'Annevoie compte 281 habitants et 52 bâtiments. Plusieurs installations industrielles se trouvent le long du ruisseau Le Rouillon au milieu du XIXe siècle: affineries, fours et haut-fourneau au charbon de bois, makas (hydraulique et à charbon de bois), brocard et moulin à farine hydraulique (p. 13)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1784, la commune d'Annevoie compte 281 habitants et 52 bâtiments. Plusieurs installations industrielles se trouvent le long du ruisseau Le Rouillon au milieu du XIXe siècle: affineries, fours et haut-fourneau au charbon de bois, makas (hydraulique et à charbon de bois), brocard et moulin à farine hydraulique (p. 13).
 C'était une commune à part entière avant la fusion des communes de 1977.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Annevoie est connue pour ses magnifiques Jardins d'Annevoie imaginés par Charles-Alexis de Montpellier à la fin du XVIIIe siècle et qui combinent la rigueur de l'art des jardins français et la fantaisie du jardin anglais tout en utilisant la rivière du Rouillon pour composer avec le cours de celle-ci des jeux ou formes multiples d'un jardin italien [2],[3]. Les visiteurs en transports en commun peuvent y accéder depuis la gare de Namur par la ligne 21 Namur - Maredsous.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Annevoie est connue pour ses magnifiques Jardins d'Annevoie imaginés par Charles-Alexis de Montpellier à la fin du XVIIIe siècle et qui combinent la rigueur de l'art des jardins français et la fantaisie du jardin anglais tout en utilisant la rivière du Rouillon pour composer avec le cours de celle-ci des jeux ou formes multiples d'un jardin italien ,. Les visiteurs en transports en commun peuvent y accéder depuis la gare de Namur par la ligne 21 Namur - Maredsous.
 Château d'Annevoie : En 1691 la famille de Montpellier s'implante à Annevoie, en la personne de Jean de Montpellier (1634-1705), seigneur d'Yvoir. Il est le grand-père de Charles-Alexis (1717-1807), écuyer, seigneur d'Annevoie, Rouillon, Ambresin et Ambresineau, Celles (Vedrin), membre de l'Etat noble et chambellan héréditaire du comté de Namur, grand bailli de Montaigle, mayeur des Ferons et maître de forges, anobli le 9 janvier 1743. Onze générations de Montpellier se sont succédé à la tête du domaine d'Annevoie jusqu'à l'aube du XXIe siècle.</t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Annevoie-Rouillon est située en Condroz et est reliée à la rive droite de la Meuse par le pont de Rouillon.
 </t>
